--- a/biology/Microbiologie/Rhodococcus_(bactérie)/Rhodococcus_(bactérie).xlsx
+++ b/biology/Microbiologie/Rhodococcus_(bactérie)/Rhodococcus_(bactérie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhodococcus_(bact%C3%A9rie)</t>
+          <t>Rhodococcus_(bactérie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodococcus est un genre de protéobactéries de la famille des Nocardiaceae.
-Ce genre regroupe une cinquantaine d'espèces. L'espèce type est Rhodococcus rhodochrous[2].
+Ce genre regroupe une cinquantaine d'espèces. L'espèce type est Rhodococcus rhodochrous.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rhodococcus_(bact%C3%A9rie)</t>
+          <t>Rhodococcus_(bactérie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (14 août 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (14 août 2014) :
 Rhodococcus aetherivorans Goodfellow et al. 2004
 Rhodococcus aurantiacus (ex Tsukamura and Mizuno 1971) Tsukamura and Yano 1985
 Rhodococcus baikonurensis Li et al. 2004
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rhodococcus_(bact%C3%A9rie)</t>
+          <t>Rhodococcus_(bactérie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,9 +588,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 août 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 août 2014) :
 Rhodococcus aetherivorans
 non-classé Rhodococcus aetherivorans I24
 Rhodococcus artemisiae
